--- a/AAII_Financials/Yearly/KDSKF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KDSKF_YR_FIN.xlsx
@@ -302,7 +302,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -708,25 +708,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9095600</v>
+        <v>9103200</v>
       </c>
       <c r="E8" s="3">
-        <v>7880300</v>
+        <v>7886900</v>
       </c>
       <c r="F8" s="3">
-        <v>8787700</v>
+        <v>8795000</v>
       </c>
       <c r="G8" s="3">
-        <v>8670600</v>
+        <v>8677800</v>
       </c>
       <c r="H8" s="3">
-        <v>10046400</v>
+        <v>10054700</v>
       </c>
       <c r="I8" s="3">
-        <v>9358000</v>
+        <v>9365700</v>
       </c>
       <c r="J8" s="3">
-        <v>8586100</v>
+        <v>8593200</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -735,25 +735,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6179400</v>
+        <v>6184500</v>
       </c>
       <c r="E9" s="3">
-        <v>5048700</v>
+        <v>5052800</v>
       </c>
       <c r="F9" s="3">
-        <v>5778300</v>
+        <v>5783100</v>
       </c>
       <c r="G9" s="3">
-        <v>5674200</v>
+        <v>5678900</v>
       </c>
       <c r="H9" s="3">
-        <v>6355000</v>
+        <v>6360300</v>
       </c>
       <c r="I9" s="3">
-        <v>6137100</v>
+        <v>6142200</v>
       </c>
       <c r="J9" s="3">
-        <v>5673100</v>
+        <v>5677800</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -762,25 +762,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2916200</v>
+        <v>2918700</v>
       </c>
       <c r="E10" s="3">
-        <v>2831700</v>
+        <v>2834000</v>
       </c>
       <c r="F10" s="3">
-        <v>3009500</v>
+        <v>3012000</v>
       </c>
       <c r="G10" s="3">
-        <v>2996500</v>
+        <v>2998900</v>
       </c>
       <c r="H10" s="3">
-        <v>3691400</v>
+        <v>3694400</v>
       </c>
       <c r="I10" s="3">
-        <v>3220900</v>
+        <v>3223500</v>
       </c>
       <c r="J10" s="3">
-        <v>2913000</v>
+        <v>2915400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -802,25 +802,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>319800</v>
+        <v>320100</v>
       </c>
       <c r="E12" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="F12" s="3">
-        <v>431500</v>
+        <v>431800</v>
       </c>
       <c r="G12" s="3">
-        <v>319800</v>
+        <v>320100</v>
       </c>
       <c r="H12" s="3">
-        <v>377300</v>
+        <v>377600</v>
       </c>
       <c r="I12" s="3">
-        <v>362100</v>
+        <v>362400</v>
       </c>
       <c r="J12" s="3">
-        <v>335000</v>
+        <v>335300</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -862,16 +862,16 @@
         <v>19500</v>
       </c>
       <c r="F14" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="G14" s="3">
-        <v>-39000</v>
+        <v>-39100</v>
       </c>
       <c r="H14" s="3">
         <v>8700</v>
       </c>
       <c r="I14" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="J14" s="3">
         <v>33600</v>
@@ -920,25 +920,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8356200</v>
+        <v>8363200</v>
       </c>
       <c r="E17" s="3">
-        <v>7109500</v>
+        <v>7115400</v>
       </c>
       <c r="F17" s="3">
-        <v>8070000</v>
+        <v>8076700</v>
       </c>
       <c r="G17" s="3">
-        <v>7725300</v>
+        <v>7731700</v>
       </c>
       <c r="H17" s="3">
-        <v>8696700</v>
+        <v>8703900</v>
       </c>
       <c r="I17" s="3">
-        <v>8440800</v>
+        <v>8447800</v>
       </c>
       <c r="J17" s="3">
-        <v>7843500</v>
+        <v>7850000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -947,25 +947,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>739400</v>
+        <v>740000</v>
       </c>
       <c r="E18" s="3">
-        <v>770800</v>
+        <v>771400</v>
       </c>
       <c r="F18" s="3">
-        <v>717700</v>
+        <v>718300</v>
       </c>
       <c r="G18" s="3">
-        <v>945300</v>
+        <v>946100</v>
       </c>
       <c r="H18" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="I18" s="3">
-        <v>917100</v>
+        <v>917900</v>
       </c>
       <c r="J18" s="3">
-        <v>742600</v>
+        <v>743200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -987,13 +987,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E20" s="3">
         <v>-8700</v>
       </c>
       <c r="F20" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="3">
         <v>4300</v>
@@ -1014,25 +1014,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1463500</v>
+        <v>1464500</v>
       </c>
       <c r="E21" s="3">
-        <v>1500400</v>
+        <v>1501400</v>
       </c>
       <c r="F21" s="3">
-        <v>1544800</v>
+        <v>1545800</v>
       </c>
       <c r="G21" s="3">
-        <v>1634800</v>
+        <v>1635900</v>
       </c>
       <c r="H21" s="3">
-        <v>1897200</v>
+        <v>1898500</v>
       </c>
       <c r="I21" s="3">
-        <v>1480900</v>
+        <v>1481900</v>
       </c>
       <c r="J21" s="3">
-        <v>1256500</v>
+        <v>1257300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1041,25 +1041,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="E22" s="3">
-        <v>99700</v>
+        <v>99800</v>
       </c>
       <c r="F22" s="3">
-        <v>97600</v>
+        <v>97700</v>
       </c>
       <c r="G22" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="H22" s="3">
         <v>105200</v>
       </c>
       <c r="I22" s="3">
-        <v>132300</v>
+        <v>132400</v>
       </c>
       <c r="J22" s="3">
-        <v>127900</v>
+        <v>128000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1068,25 +1068,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>644000</v>
+        <v>644500</v>
       </c>
       <c r="E23" s="3">
-        <v>662400</v>
+        <v>662900</v>
       </c>
       <c r="F23" s="3">
-        <v>645000</v>
+        <v>645600</v>
       </c>
       <c r="G23" s="3">
-        <v>845600</v>
+        <v>846300</v>
       </c>
       <c r="H23" s="3">
-        <v>1240200</v>
+        <v>1241200</v>
       </c>
       <c r="I23" s="3">
-        <v>804400</v>
+        <v>805100</v>
       </c>
       <c r="J23" s="3">
-        <v>598400</v>
+        <v>598900</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1095,25 +1095,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>134400</v>
+        <v>134500</v>
       </c>
       <c r="E24" s="3">
-        <v>133300</v>
+        <v>133500</v>
       </c>
       <c r="F24" s="3">
-        <v>111700</v>
+        <v>111800</v>
       </c>
       <c r="G24" s="3">
-        <v>153900</v>
+        <v>154100</v>
       </c>
       <c r="H24" s="3">
-        <v>201600</v>
+        <v>201800</v>
       </c>
       <c r="I24" s="3">
-        <v>151800</v>
+        <v>151900</v>
       </c>
       <c r="J24" s="3">
-        <v>96500</v>
+        <v>96600</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1149,25 +1149,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>509500</v>
+        <v>510000</v>
       </c>
       <c r="E26" s="3">
-        <v>529000</v>
+        <v>529500</v>
       </c>
       <c r="F26" s="3">
-        <v>533400</v>
+        <v>533800</v>
       </c>
       <c r="G26" s="3">
-        <v>691700</v>
+        <v>692200</v>
       </c>
       <c r="H26" s="3">
-        <v>1038600</v>
+        <v>1039400</v>
       </c>
       <c r="I26" s="3">
-        <v>652600</v>
+        <v>653200</v>
       </c>
       <c r="J26" s="3">
-        <v>501900</v>
+        <v>502400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1176,25 +1176,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>492200</v>
+        <v>492600</v>
       </c>
       <c r="E27" s="3">
-        <v>889000</v>
+        <v>889700</v>
       </c>
       <c r="F27" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G27" s="3">
-        <v>737200</v>
+        <v>737800</v>
       </c>
       <c r="H27" s="3">
-        <v>1167600</v>
+        <v>1168500</v>
       </c>
       <c r="I27" s="3">
-        <v>1882000</v>
+        <v>1883600</v>
       </c>
       <c r="J27" s="3">
-        <v>699200</v>
+        <v>699800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1230,16 +1230,16 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>1344300</v>
+        <v>1345400</v>
       </c>
       <c r="E29" s="3">
-        <v>900900</v>
+        <v>901600</v>
       </c>
       <c r="F29" s="3">
         <v>47700</v>
       </c>
       <c r="G29" s="3">
-        <v>75900</v>
+        <v>76000</v>
       </c>
       <c r="H29" s="3">
         <v>-8700</v>
@@ -1311,13 +1311,13 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="E32" s="3">
         <v>8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-24900</v>
+        <v>-25000</v>
       </c>
       <c r="G32" s="3">
         <v>-4300</v>
@@ -1338,25 +1338,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1836500</v>
+        <v>1838000</v>
       </c>
       <c r="E33" s="3">
-        <v>1789800</v>
+        <v>1791300</v>
       </c>
       <c r="F33" s="3">
-        <v>541000</v>
+        <v>541400</v>
       </c>
       <c r="G33" s="3">
-        <v>813100</v>
+        <v>813800</v>
       </c>
       <c r="H33" s="3">
-        <v>1158900</v>
+        <v>1159900</v>
       </c>
       <c r="I33" s="3">
-        <v>1909100</v>
+        <v>1910700</v>
       </c>
       <c r="J33" s="3">
-        <v>668900</v>
+        <v>669400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1392,25 +1392,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1836500</v>
+        <v>1838000</v>
       </c>
       <c r="E35" s="3">
-        <v>1789800</v>
+        <v>1791300</v>
       </c>
       <c r="F35" s="3">
-        <v>541000</v>
+        <v>541400</v>
       </c>
       <c r="G35" s="3">
-        <v>813100</v>
+        <v>813800</v>
       </c>
       <c r="H35" s="3">
-        <v>1158900</v>
+        <v>1159900</v>
       </c>
       <c r="I35" s="3">
-        <v>1909100</v>
+        <v>1910700</v>
       </c>
       <c r="J35" s="3">
-        <v>668900</v>
+        <v>669400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1477,25 +1477,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2986700</v>
+        <v>2989200</v>
       </c>
       <c r="E41" s="3">
-        <v>3384600</v>
+        <v>3387400</v>
       </c>
       <c r="F41" s="3">
-        <v>944300</v>
+        <v>945000</v>
       </c>
       <c r="G41" s="3">
-        <v>867300</v>
+        <v>868000</v>
       </c>
       <c r="H41" s="3">
-        <v>1388700</v>
+        <v>1389900</v>
       </c>
       <c r="I41" s="3">
-        <v>974600</v>
+        <v>975400</v>
       </c>
       <c r="J41" s="3">
-        <v>1309600</v>
+        <v>1310700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1504,25 +1504,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>135500</v>
+        <v>135600</v>
       </c>
       <c r="E42" s="3">
-        <v>530100</v>
+        <v>530600</v>
       </c>
       <c r="F42" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="G42" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="H42" s="3">
-        <v>1384400</v>
+        <v>1385500</v>
       </c>
       <c r="I42" s="3">
-        <v>1034200</v>
+        <v>1035100</v>
       </c>
       <c r="J42" s="3">
-        <v>1023400</v>
+        <v>1024200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1531,25 +1531,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1733500</v>
+        <v>1734900</v>
       </c>
       <c r="E43" s="3">
-        <v>3591600</v>
+        <v>3594600</v>
       </c>
       <c r="F43" s="3">
-        <v>1579500</v>
+        <v>1580800</v>
       </c>
       <c r="G43" s="3">
-        <v>1807200</v>
+        <v>1808700</v>
       </c>
       <c r="H43" s="3">
-        <v>1862500</v>
+        <v>1864000</v>
       </c>
       <c r="I43" s="3">
-        <v>1793100</v>
+        <v>1794600</v>
       </c>
       <c r="J43" s="3">
-        <v>3483200</v>
+        <v>3486100</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1558,25 +1558,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2535700</v>
+        <v>2537800</v>
       </c>
       <c r="E44" s="3">
-        <v>4980400</v>
+        <v>4984500</v>
       </c>
       <c r="F44" s="3">
-        <v>2037000</v>
+        <v>2038700</v>
       </c>
       <c r="G44" s="3">
-        <v>2188800</v>
+        <v>2190600</v>
       </c>
       <c r="H44" s="3">
-        <v>2160600</v>
+        <v>2162400</v>
       </c>
       <c r="I44" s="3">
-        <v>2003400</v>
+        <v>2005100</v>
       </c>
       <c r="J44" s="3">
-        <v>3902800</v>
+        <v>3906000</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1585,19 +1585,19 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1420200</v>
+        <v>1421300</v>
       </c>
       <c r="E45" s="3">
-        <v>114900</v>
+        <v>115000</v>
       </c>
       <c r="F45" s="3">
-        <v>1268400</v>
+        <v>1269500</v>
       </c>
       <c r="G45" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="H45" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="I45" s="3">
         <v>83500</v>
@@ -1612,25 +1612,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8811600</v>
+        <v>8818900</v>
       </c>
       <c r="E46" s="3">
-        <v>6645500</v>
+        <v>6651100</v>
       </c>
       <c r="F46" s="3">
-        <v>5875800</v>
+        <v>5880700</v>
       </c>
       <c r="G46" s="3">
-        <v>5663300</v>
+        <v>5668000</v>
       </c>
       <c r="H46" s="3">
-        <v>6840700</v>
+        <v>6846300</v>
       </c>
       <c r="I46" s="3">
-        <v>5888800</v>
+        <v>5893700</v>
       </c>
       <c r="J46" s="3">
-        <v>5464900</v>
+        <v>5469500</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1639,25 +1639,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>375100</v>
+        <v>375400</v>
       </c>
       <c r="E47" s="3">
-        <v>557200</v>
+        <v>557700</v>
       </c>
       <c r="F47" s="3">
-        <v>432600</v>
+        <v>432900</v>
       </c>
       <c r="G47" s="3">
-        <v>447700</v>
+        <v>448100</v>
       </c>
       <c r="H47" s="3">
-        <v>497600</v>
+        <v>498000</v>
       </c>
       <c r="I47" s="3">
-        <v>743700</v>
+        <v>744300</v>
       </c>
       <c r="J47" s="3">
-        <v>1613100</v>
+        <v>1614500</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1666,25 +1666,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3876700</v>
+        <v>3880000</v>
       </c>
       <c r="E48" s="3">
-        <v>8594700</v>
+        <v>8601900</v>
       </c>
       <c r="F48" s="3">
-        <v>4318000</v>
+        <v>4321600</v>
       </c>
       <c r="G48" s="3">
-        <v>4379800</v>
+        <v>4383400</v>
       </c>
       <c r="H48" s="3">
-        <v>3806300</v>
+        <v>3809400</v>
       </c>
       <c r="I48" s="3">
-        <v>3591600</v>
+        <v>3594600</v>
       </c>
       <c r="J48" s="3">
-        <v>7209300</v>
+        <v>7215300</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1693,25 +1693,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>5579900</v>
+        <v>5584500</v>
       </c>
       <c r="E49" s="3">
-        <v>11511000</v>
+        <v>11520500</v>
       </c>
       <c r="F49" s="3">
-        <v>4813400</v>
+        <v>4817400</v>
       </c>
       <c r="G49" s="3">
-        <v>3810600</v>
+        <v>3813800</v>
       </c>
       <c r="H49" s="3">
-        <v>3349900</v>
+        <v>3352700</v>
       </c>
       <c r="I49" s="3">
-        <v>3315200</v>
+        <v>3317900</v>
       </c>
       <c r="J49" s="3">
-        <v>6912200</v>
+        <v>6918000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1774,25 +1774,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>223300</v>
+        <v>223500</v>
       </c>
       <c r="E52" s="3">
-        <v>357800</v>
+        <v>358100</v>
       </c>
       <c r="F52" s="3">
-        <v>338200</v>
+        <v>338500</v>
       </c>
       <c r="G52" s="3">
-        <v>272100</v>
+        <v>272300</v>
       </c>
       <c r="H52" s="3">
-        <v>293800</v>
+        <v>294000</v>
       </c>
       <c r="I52" s="3">
-        <v>339300</v>
+        <v>339600</v>
       </c>
       <c r="J52" s="3">
-        <v>410900</v>
+        <v>411200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1828,25 +1828,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>18866600</v>
+        <v>18882300</v>
       </c>
       <c r="E54" s="3">
-        <v>17367300</v>
+        <v>17381700</v>
       </c>
       <c r="F54" s="3">
-        <v>15552500</v>
+        <v>15565400</v>
       </c>
       <c r="G54" s="3">
-        <v>14573600</v>
+        <v>14585700</v>
       </c>
       <c r="H54" s="3">
-        <v>14788200</v>
+        <v>14800500</v>
       </c>
       <c r="I54" s="3">
-        <v>13878600</v>
+        <v>13890200</v>
       </c>
       <c r="J54" s="3">
-        <v>14047800</v>
+        <v>14059400</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1881,25 +1881,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1528600</v>
+        <v>1529800</v>
       </c>
       <c r="E57" s="3">
-        <v>3383500</v>
+        <v>3386300</v>
       </c>
       <c r="F57" s="3">
-        <v>1300900</v>
+        <v>1302000</v>
       </c>
       <c r="G57" s="3">
-        <v>1441900</v>
+        <v>1443000</v>
       </c>
       <c r="H57" s="3">
-        <v>1523200</v>
+        <v>1524400</v>
       </c>
       <c r="I57" s="3">
-        <v>1492800</v>
+        <v>1494000</v>
       </c>
       <c r="J57" s="3">
-        <v>2875000</v>
+        <v>2877400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1908,25 +1908,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>93200</v>
+        <v>93300</v>
       </c>
       <c r="E58" s="3">
-        <v>223300</v>
+        <v>223500</v>
       </c>
       <c r="F58" s="3">
-        <v>110600</v>
+        <v>110700</v>
       </c>
       <c r="G58" s="3">
-        <v>204900</v>
+        <v>205100</v>
       </c>
       <c r="H58" s="3">
-        <v>412000</v>
+        <v>412300</v>
       </c>
       <c r="I58" s="3">
         <v>83500</v>
       </c>
       <c r="J58" s="3">
-        <v>1849500</v>
+        <v>1851000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1935,25 +1935,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1175200</v>
+        <v>1176100</v>
       </c>
       <c r="E59" s="3">
-        <v>1427800</v>
+        <v>1428900</v>
       </c>
       <c r="F59" s="3">
-        <v>1020100</v>
+        <v>1021000</v>
       </c>
       <c r="G59" s="3">
-        <v>698200</v>
+        <v>698700</v>
       </c>
       <c r="H59" s="3">
-        <v>852100</v>
+        <v>852800</v>
       </c>
       <c r="I59" s="3">
-        <v>839100</v>
+        <v>839800</v>
       </c>
       <c r="J59" s="3">
-        <v>1701000</v>
+        <v>1702400</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1962,25 +1962,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2797000</v>
+        <v>2799300</v>
       </c>
       <c r="E60" s="3">
-        <v>2634400</v>
+        <v>2636500</v>
       </c>
       <c r="F60" s="3">
-        <v>2431600</v>
+        <v>2433700</v>
       </c>
       <c r="G60" s="3">
-        <v>2344900</v>
+        <v>2346900</v>
       </c>
       <c r="H60" s="3">
-        <v>2787200</v>
+        <v>2789500</v>
       </c>
       <c r="I60" s="3">
-        <v>2415400</v>
+        <v>2417400</v>
       </c>
       <c r="J60" s="3">
-        <v>3423600</v>
+        <v>3426400</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1989,25 +1989,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3228400</v>
+        <v>3231100</v>
       </c>
       <c r="E61" s="3">
-        <v>3246900</v>
+        <v>3249600</v>
       </c>
       <c r="F61" s="3">
-        <v>3777000</v>
+        <v>3780100</v>
       </c>
       <c r="G61" s="3">
-        <v>2671200</v>
+        <v>2673400</v>
       </c>
       <c r="H61" s="3">
-        <v>2463100</v>
+        <v>2465100</v>
       </c>
       <c r="I61" s="3">
-        <v>2765500</v>
+        <v>2767800</v>
       </c>
       <c r="J61" s="3">
-        <v>2766600</v>
+        <v>2768900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2016,25 +2016,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1084100</v>
+        <v>1085000</v>
       </c>
       <c r="E62" s="3">
-        <v>1402800</v>
+        <v>1404000</v>
       </c>
       <c r="F62" s="3">
-        <v>1227200</v>
+        <v>1228200</v>
       </c>
       <c r="G62" s="3">
-        <v>1063500</v>
+        <v>1064400</v>
       </c>
       <c r="H62" s="3">
-        <v>1065700</v>
+        <v>1066600</v>
       </c>
       <c r="I62" s="3">
-        <v>1038600</v>
+        <v>1039400</v>
       </c>
       <c r="J62" s="3">
-        <v>1157800</v>
+        <v>1158800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2124,25 +2124,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>7220100</v>
+        <v>7226100</v>
       </c>
       <c r="E66" s="3">
-        <v>7265600</v>
+        <v>7271700</v>
       </c>
       <c r="F66" s="3">
-        <v>7531200</v>
+        <v>7537500</v>
       </c>
       <c r="G66" s="3">
-        <v>6192400</v>
+        <v>6197500</v>
       </c>
       <c r="H66" s="3">
-        <v>6351700</v>
+        <v>6357000</v>
       </c>
       <c r="I66" s="3">
-        <v>6331100</v>
+        <v>6336400</v>
       </c>
       <c r="J66" s="3">
-        <v>7465100</v>
+        <v>7471300</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2272,25 +2272,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>10646900</v>
+        <v>10655800</v>
       </c>
       <c r="E72" s="3">
-        <v>9300500</v>
+        <v>9308200</v>
       </c>
       <c r="F72" s="3">
-        <v>8490700</v>
+        <v>8497700</v>
       </c>
       <c r="G72" s="3">
-        <v>8417000</v>
+        <v>8423900</v>
       </c>
       <c r="H72" s="3">
-        <v>8059200</v>
+        <v>8065900</v>
       </c>
       <c r="I72" s="3">
-        <v>7353500</v>
+        <v>7359600</v>
       </c>
       <c r="J72" s="3">
-        <v>5694800</v>
+        <v>5699500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2380,25 +2380,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>11646500</v>
+        <v>11656200</v>
       </c>
       <c r="E76" s="3">
-        <v>10101600</v>
+        <v>10110000</v>
       </c>
       <c r="F76" s="3">
-        <v>8021300</v>
+        <v>8027900</v>
       </c>
       <c r="G76" s="3">
-        <v>8381200</v>
+        <v>8388100</v>
       </c>
       <c r="H76" s="3">
-        <v>8436500</v>
+        <v>8443500</v>
       </c>
       <c r="I76" s="3">
-        <v>7547500</v>
+        <v>7553800</v>
       </c>
       <c r="J76" s="3">
-        <v>6582700</v>
+        <v>6588100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2466,25 +2466,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1836500</v>
+        <v>1838000</v>
       </c>
       <c r="E81" s="3">
-        <v>1789800</v>
+        <v>1791300</v>
       </c>
       <c r="F81" s="3">
-        <v>541000</v>
+        <v>541400</v>
       </c>
       <c r="G81" s="3">
-        <v>813100</v>
+        <v>813800</v>
       </c>
       <c r="H81" s="3">
-        <v>1158900</v>
+        <v>1159900</v>
       </c>
       <c r="I81" s="3">
-        <v>1909100</v>
+        <v>1910700</v>
       </c>
       <c r="J81" s="3">
-        <v>668900</v>
+        <v>669400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2506,25 +2506,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>706800</v>
+        <v>707400</v>
       </c>
       <c r="E83" s="3">
-        <v>738300</v>
+        <v>738900</v>
       </c>
       <c r="F83" s="3">
-        <v>802200</v>
+        <v>802900</v>
       </c>
       <c r="G83" s="3">
-        <v>685200</v>
+        <v>685700</v>
       </c>
       <c r="H83" s="3">
-        <v>551800</v>
+        <v>552300</v>
       </c>
       <c r="I83" s="3">
-        <v>544200</v>
+        <v>544700</v>
       </c>
       <c r="J83" s="3">
-        <v>530100</v>
+        <v>530600</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2668,25 +2668,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1046200</v>
+        <v>1047000</v>
       </c>
       <c r="E89" s="3">
-        <v>1547000</v>
+        <v>1548300</v>
       </c>
       <c r="F89" s="3">
-        <v>1619600</v>
+        <v>1621000</v>
       </c>
       <c r="G89" s="3">
-        <v>1501500</v>
+        <v>1502700</v>
       </c>
       <c r="H89" s="3">
-        <v>1508000</v>
+        <v>1509200</v>
       </c>
       <c r="I89" s="3">
-        <v>1079800</v>
+        <v>1080700</v>
       </c>
       <c r="J89" s="3">
-        <v>1103600</v>
+        <v>1104500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2708,25 +2708,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-548600</v>
+        <v>-549000</v>
       </c>
       <c r="E91" s="3">
-        <v>-469400</v>
+        <v>-469800</v>
       </c>
       <c r="F91" s="3">
-        <v>-496500</v>
+        <v>-496900</v>
       </c>
       <c r="G91" s="3">
-        <v>-563700</v>
+        <v>-564200</v>
       </c>
       <c r="H91" s="3">
-        <v>-612500</v>
+        <v>-613000</v>
       </c>
       <c r="I91" s="3">
-        <v>-486800</v>
+        <v>-487200</v>
       </c>
       <c r="J91" s="3">
-        <v>-447700</v>
+        <v>-448100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2789,25 +2789,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>949700</v>
+        <v>950500</v>
       </c>
       <c r="E94" s="3">
-        <v>225500</v>
+        <v>225700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1606600</v>
+        <v>-1608000</v>
       </c>
       <c r="G94" s="3">
-        <v>-569200</v>
+        <v>-569600</v>
       </c>
       <c r="H94" s="3">
-        <v>-655900</v>
+        <v>-656400</v>
       </c>
       <c r="I94" s="3">
-        <v>746900</v>
+        <v>747600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1294400</v>
+        <v>-1295500</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2829,25 +2829,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-374000</v>
+        <v>-374300</v>
       </c>
       <c r="E96" s="3">
-        <v>-288400</v>
+        <v>-288600</v>
       </c>
       <c r="F96" s="3">
-        <v>-313300</v>
+        <v>-313600</v>
       </c>
       <c r="G96" s="3">
-        <v>-315500</v>
+        <v>-315700</v>
       </c>
       <c r="H96" s="3">
-        <v>-243900</v>
+        <v>-244100</v>
       </c>
       <c r="I96" s="3">
-        <v>-216800</v>
+        <v>-217000</v>
       </c>
       <c r="J96" s="3">
-        <v>-206000</v>
+        <v>-206200</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2937,25 +2937,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-699200</v>
+        <v>-699800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1066800</v>
+        <v>-1067600</v>
       </c>
       <c r="F100" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1444000</v>
+        <v>-1445200</v>
       </c>
       <c r="H100" s="3">
-        <v>-434700</v>
+        <v>-435100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1457000</v>
+        <v>-1458200</v>
       </c>
       <c r="J100" s="3">
-        <v>122500</v>
+        <v>122600</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2991,25 +2991,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1294400</v>
+        <v>1295500</v>
       </c>
       <c r="E102" s="3">
-        <v>748000</v>
+        <v>748700</v>
       </c>
       <c r="F102" s="3">
         <v>77000</v>
       </c>
       <c r="G102" s="3">
-        <v>-521500</v>
+        <v>-521900</v>
       </c>
       <c r="H102" s="3">
-        <v>414100</v>
+        <v>414500</v>
       </c>
       <c r="I102" s="3">
-        <v>319800</v>
+        <v>320100</v>
       </c>
       <c r="J102" s="3">
-        <v>-66100</v>
+        <v>-66200</v>
       </c>
       <c r="K102" s="3"/>
     </row>
